--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_5_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3602584.555990438</v>
+        <v>-3603296.85781348</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.719915999</v>
+        <v>167214.7199159989</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.199249640013477</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="R9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>159.6238954891593</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="G11" t="n">
-        <v>80.62865054998129</v>
+        <v>10.74539842931097</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554826</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929905</v>
+        <v>16.7332812292989</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675133</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>142.7315194560841</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.36988737129812</v>
+        <v>9.369887371297978</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161059</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693651</v>
+        <v>13.44252716693637</v>
       </c>
       <c r="T12" t="n">
-        <v>147.5232607922855</v>
+        <v>36.82265945242234</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382081</v>
+        <v>59.07980534382067</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233444</v>
+        <v>62.5006567623343</v>
       </c>
       <c r="W12" t="n">
-        <v>188.4979333192471</v>
+        <v>113.9667506319648</v>
       </c>
       <c r="X12" t="n">
-        <v>39.1646502864028</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095782</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256633</v>
+        <v>25.28169700256618</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311262</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725507</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154977</v>
       </c>
       <c r="V13" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138196</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362674</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517473</v>
+        <v>43.77119125517459</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110048</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>172.0572332281109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>93.73412118984803</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>32.32141274385221</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240811</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.733281229299</v>
+        <v>16.7332812292989</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675131</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958189</v>
+        <v>72.00227733958181</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>9.369887371297978</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161059</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>23.88176061759633</v>
+        <v>13.44252716693637</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242242</v>
+        <v>36.82265945242234</v>
       </c>
       <c r="U15" t="n">
-        <v>188.4979333192471</v>
+        <v>59.07980534382067</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233439</v>
+        <v>62.5006567623343</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394373</v>
+        <v>88.55631942394365</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640275</v>
+        <v>65.16376005264146</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095776</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256627</v>
+        <v>25.28169700256618</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311271</v>
+        <v>57.28978021311262</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725515</v>
+        <v>45.61329429725507</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154977</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138205</v>
+        <v>66.96075103138196</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362674</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517467</v>
+        <v>43.77119125517459</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110056</v>
+        <v>38.99300866110048</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.6395694508488</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75782645419429</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524275</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465162</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7515787130289</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G17" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156603</v>
+        <v>49.57372768156616</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.43211268216749</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878236</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X17" t="n">
-        <v>62.3350433677216</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146536</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>54.11421720367283</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>11.7346476384347</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161059</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.6395694508488</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75782645419429</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524275</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465162</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7515787130289</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G20" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156603</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.43211268216749</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878236</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X20" t="n">
-        <v>62.3350433677216</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146536</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,25 +2202,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161059</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>161.4422677345797</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>160.4624859396987</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.6395694508488</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75782645419429</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524275</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465162</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7515787130289</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G23" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156603</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.43211268216749</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878236</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X23" t="n">
-        <v>62.3350433677216</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146536</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="24">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390261</v>
+        <v>47.31184619050079</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.706131680758531</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2558,22 +2558,22 @@
         <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
-        <v>124.2874091182262</v>
+        <v>124.2874091182263</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376351</v>
+        <v>157.9941615376352</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7144991160124</v>
+        <v>189.7144991160125</v>
       </c>
       <c r="G26" t="n">
         <v>205.3534224386475</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845495</v>
+        <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147503</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444714</v>
+        <v>14.03224403444719</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818211</v>
+        <v>8.98113087581828</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864871</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V26" t="n">
         <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017658</v>
+        <v>124.4117133017659</v>
       </c>
       <c r="X26" t="n">
         <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944488</v>
+        <v>168.8008168944489</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -2643,10 +2643,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>104.9031924866033</v>
       </c>
       <c r="G27" t="n">
-        <v>133.5979048910411</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161059</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489235</v>
+        <v>1.486173081489291</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288756</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V27" t="n">
-        <v>27.1641703914012</v>
+        <v>27.16417039140126</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301055</v>
+        <v>53.2198330530106</v>
       </c>
       <c r="X27" t="n">
-        <v>3.82816391546956</v>
+        <v>3.828163915469617</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024571</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217952</v>
+        <v>21.95329384217958</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632196</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456457</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044886</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533428</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241484</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167374</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538323</v>
+        <v>160.6024898538324</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571778</v>
+        <v>136.7207468571779</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
@@ -2804,13 +2804,13 @@
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386475</v>
+        <v>205.3534224386476</v>
       </c>
       <c r="H29" t="n">
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147507</v>
+        <v>27.52501869147509</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.0322440344472</v>
+        <v>14.03224403444722</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818268</v>
+        <v>8.981130875818295</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864879</v>
       </c>
       <c r="V29" t="n">
-        <v>107.395033085151</v>
+        <v>107.3950330851511</v>
       </c>
       <c r="W29" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707051</v>
+        <v>146.2979637707052</v>
       </c>
       <c r="Y29" t="n">
         <v>168.8008168944489</v>
@@ -2871,25 +2871,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>17.91965663447852</v>
+        <v>73.67372440435368</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161059</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489292</v>
+        <v>1.486173081489319</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288762</v>
+        <v>23.74331897288765</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140126</v>
+        <v>27.16417039140129</v>
       </c>
       <c r="W30" t="n">
-        <v>53.2198330530106</v>
+        <v>53.21983305301063</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469617</v>
+        <v>3.828163915469645</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024628</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217958</v>
+        <v>21.9532938421796</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632205</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456462</v>
+        <v>75.17180644456465</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044894</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533437</v>
       </c>
       <c r="X31" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241569</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167459</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461084</v>
+        <v>26.69730882461081</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -3114,10 +3114,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>104.9465291299228</v>
       </c>
       <c r="F33" t="n">
-        <v>109.8694516877887</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161059</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250521</v>
+        <v>0.6584632146250515</v>
       </c>
       <c r="U33" t="n">
         <v>22.91560910602338</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0280721215645</v>
+        <v>102.0280721215646</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14632912491004</v>
+        <v>78.1463291249101</v>
       </c>
       <c r="D35" t="n">
-        <v>65.7129913859585</v>
+        <v>65.71299138595856</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41974380536737</v>
+        <v>99.41974380536743</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1400813837447</v>
+        <v>131.1400813837448</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7790047063797</v>
+        <v>146.7790047063798</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228178</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82061535288324</v>
+        <v>48.82061535288329</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83729556949811</v>
+        <v>65.83729556949817</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72354603843735</v>
+        <v>87.72354603843741</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2263991621811</v>
+        <v>110.2263991621812</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>65.42094839095802</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -3351,10 +3351,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161059</v>
+        <v>2.806634693155809</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59738871229683</v>
+        <v>16.59738871229688</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25153883306655</v>
+        <v>18.2515388330666</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>65.42094839095813</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161059</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>24.33978122672904</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4608093700286</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161059</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>18.09600701974606</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153555</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>141.1514802075822</v>
       </c>
     </row>
     <row r="43">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,16 +4098,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161059</v>
+        <v>6.869455874161044</v>
       </c>
       <c r="R45" t="n">
-        <v>34.64644014667221</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>25.69481436153555</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>129.4146795340378</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="C8" t="n">
         <v>6.719070557086891</v>
@@ -4841,13 +4841,13 @@
         <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="X8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="M9" t="n">
-        <v>6.462484272827225</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="N9" t="n">
-        <v>9.629741416440567</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="O9" t="n">
         <v>12.79699856005391</v>
@@ -4902,31 +4902,31 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.565433267111001</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="R9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="S9" t="n">
-        <v>3.102302681225188</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.5543591779153</v>
+        <v>548.1509070829134</v>
       </c>
       <c r="C11" t="n">
-        <v>257.7591740990153</v>
+        <v>548.1509070829134</v>
       </c>
       <c r="D11" t="n">
-        <v>96.52291602915723</v>
+        <v>386.9146490130555</v>
       </c>
       <c r="E11" t="n">
-        <v>96.52291602915723</v>
+        <v>386.9146490130555</v>
       </c>
       <c r="F11" t="n">
-        <v>96.52291602915723</v>
+        <v>196.5126961653313</v>
       </c>
       <c r="G11" t="n">
-        <v>15.07983466553977</v>
+        <v>185.6587583579465</v>
       </c>
       <c r="H11" t="n">
         <v>15.07983466553977</v>
@@ -5039,52 +5039,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021288</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4902538590856</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="L11" t="n">
-        <v>162.2110963398457</v>
+        <v>162.153655882889</v>
       </c>
       <c r="M11" t="n">
-        <v>243.0729954267929</v>
+        <v>243.0155549698363</v>
       </c>
       <c r="N11" t="n">
-        <v>318.4008885624852</v>
+        <v>318.400888562485</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485399</v>
+        <v>505.0138425485397</v>
       </c>
       <c r="P11" t="n">
         <v>666.4395714324991</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049692</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0894290049692</v>
+        <v>737.0894290049695</v>
       </c>
       <c r="T11" t="n">
-        <v>737.0894290049692</v>
+        <v>692.324159058756</v>
       </c>
       <c r="U11" t="n">
-        <v>737.0894290049692</v>
+        <v>692.324159058756</v>
       </c>
       <c r="V11" t="n">
-        <v>592.9161770291265</v>
+        <v>548.1509070829134</v>
       </c>
       <c r="W11" t="n">
-        <v>431.5543591779153</v>
+        <v>548.1509070829134</v>
       </c>
       <c r="X11" t="n">
-        <v>431.5543591779153</v>
+        <v>548.1509070829134</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.5543591779153</v>
+        <v>548.1509070829134</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>185.9974792101742</v>
+        <v>77.5495899738232</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5329465118933</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="D12" t="n">
-        <v>176.5329465118933</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="E12" t="n">
-        <v>176.5329465118933</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="F12" t="n">
-        <v>176.5329465118933</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="G12" t="n">
-        <v>176.5329465118933</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="H12" t="n">
-        <v>176.5329465118933</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="I12" t="n">
         <v>68.08505727554241</v>
@@ -5127,43 +5127,43 @@
         <v>170.3760798097942</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188887</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.052888959654</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="R12" t="n">
-        <v>747.052888959654</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="S12" t="n">
-        <v>733.4745786900211</v>
+        <v>733.4745786900215</v>
       </c>
       <c r="T12" t="n">
-        <v>584.4611839503388</v>
+        <v>696.2799731825243</v>
       </c>
       <c r="U12" t="n">
-        <v>524.7846128959743</v>
+        <v>636.6034021281599</v>
       </c>
       <c r="V12" t="n">
-        <v>461.6526363683638</v>
+        <v>573.4714256005495</v>
       </c>
       <c r="W12" t="n">
-        <v>271.2506835206395</v>
+        <v>458.353495669272</v>
       </c>
       <c r="X12" t="n">
-        <v>231.6904307060912</v>
+        <v>267.9515428215476</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.9974792101742</v>
+        <v>77.5495899738232</v>
       </c>
     </row>
     <row r="13">
@@ -5176,70 +5176,70 @@
         <v>15.07983466553977</v>
       </c>
       <c r="C13" t="n">
-        <v>26.65400701482426</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D13" t="n">
-        <v>26.65400701482426</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E13" t="n">
-        <v>26.65400701482426</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F13" t="n">
-        <v>26.65400701482426</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G13" t="n">
-        <v>26.65400701482426</v>
+        <v>24.43284899919609</v>
       </c>
       <c r="H13" t="n">
-        <v>26.65400701482426</v>
+        <v>36.63347683261344</v>
       </c>
       <c r="I13" t="n">
-        <v>33.50021205533901</v>
+        <v>41.96607948188893</v>
       </c>
       <c r="J13" t="n">
-        <v>90.82978205979626</v>
+        <v>99.29564948634632</v>
       </c>
       <c r="K13" t="n">
-        <v>90.82978205979626</v>
+        <v>209.3027506600855</v>
       </c>
       <c r="L13" t="n">
-        <v>90.82978205979626</v>
+        <v>209.3027506600855</v>
       </c>
       <c r="M13" t="n">
-        <v>242.2318668264288</v>
+        <v>360.7048354267183</v>
       </c>
       <c r="N13" t="n">
-        <v>402.2436925423774</v>
+        <v>520.716661142667</v>
       </c>
       <c r="O13" t="n">
-        <v>402.2436925423774</v>
+        <v>520.716661142667</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.716661142667</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.716661142667</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633073</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015782</v>
+        <v>437.3111286015774</v>
       </c>
       <c r="T13" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578853</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604129</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064922</v>
+        <v>211.9754335064918</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117114</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099494</v>
+        <v>54.4667121009948</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>473.9579030869601</v>
+        <v>285.0193811649045</v>
       </c>
       <c r="C14" t="n">
-        <v>300.1627180080601</v>
+        <v>111.2241960860046</v>
       </c>
       <c r="D14" t="n">
-        <v>300.1627180080601</v>
+        <v>111.2241960860046</v>
       </c>
       <c r="E14" t="n">
-        <v>109.7607651603358</v>
+        <v>111.2241960860046</v>
       </c>
       <c r="F14" t="n">
-        <v>15.07983466553977</v>
+        <v>111.2241960860046</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07983466553977</v>
+        <v>78.57630442554796</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07983466553977</v>
+        <v>78.57630442554796</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021288</v>
+        <v>115.4328134021289</v>
       </c>
       <c r="K14" t="n">
-        <v>285.139674688828</v>
+        <v>285.1396746888282</v>
       </c>
       <c r="L14" t="n">
-        <v>471.7526286748827</v>
+        <v>331.8605171695883</v>
       </c>
       <c r="M14" t="n">
-        <v>552.6145277618299</v>
+        <v>412.7224162565356</v>
       </c>
       <c r="N14" t="n">
-        <v>627.9424208975222</v>
+        <v>488.0503093922279</v>
       </c>
       <c r="O14" t="n">
-        <v>662.1630555901899</v>
+        <v>522.2709440848956</v>
       </c>
       <c r="P14" t="n">
-        <v>666.439571432499</v>
+        <v>666.4395714324991</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049691</v>
+        <v>737.0894290049696</v>
       </c>
       <c r="S14" t="n">
-        <v>737.0894290049691</v>
+        <v>737.0894290049696</v>
       </c>
       <c r="T14" t="n">
-        <v>737.0894290049691</v>
+        <v>692.3241590587561</v>
       </c>
       <c r="U14" t="n">
-        <v>664.3598559346844</v>
+        <v>619.5945859884714</v>
       </c>
       <c r="V14" t="n">
-        <v>664.3598559346844</v>
+        <v>475.4213340126289</v>
       </c>
       <c r="W14" t="n">
-        <v>664.3598559346844</v>
+        <v>475.4213340126289</v>
       </c>
       <c r="X14" t="n">
-        <v>664.3598559346844</v>
+        <v>475.4213340126289</v>
       </c>
       <c r="Y14" t="n">
-        <v>664.3598559346844</v>
+        <v>475.4213340126289</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>257.4973315425787</v>
+        <v>227.796665200719</v>
       </c>
       <c r="C15" t="n">
-        <v>68.08505727554241</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="D15" t="n">
-        <v>68.08505727554241</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="E15" t="n">
-        <v>68.08505727554241</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="F15" t="n">
-        <v>68.08505727554241</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="G15" t="n">
         <v>68.08505727554241</v>
@@ -5358,49 +5358,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.0431606814201</v>
+        <v>53.04316068142015</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188887</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.052888959654</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="R15" t="n">
-        <v>747.052888959654</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="S15" t="n">
-        <v>722.9298984368294</v>
+        <v>733.4745786900215</v>
       </c>
       <c r="T15" t="n">
-        <v>685.735292929332</v>
+        <v>696.2799731825243</v>
       </c>
       <c r="U15" t="n">
-        <v>495.3333400816076</v>
+        <v>636.6034021281599</v>
       </c>
       <c r="V15" t="n">
-        <v>432.2013635539971</v>
+        <v>573.4714256005495</v>
       </c>
       <c r="W15" t="n">
-        <v>342.7505358530439</v>
+        <v>484.0205978995963</v>
       </c>
       <c r="X15" t="n">
-        <v>303.1902830384956</v>
+        <v>418.1986180484433</v>
       </c>
       <c r="Y15" t="n">
-        <v>257.4973315425787</v>
+        <v>227.796665200719</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.60586471875853</v>
+        <v>15.60586471875862</v>
       </c>
       <c r="C16" t="n">
-        <v>27.18003706804308</v>
+        <v>27.18003706804326</v>
       </c>
       <c r="D16" t="n">
-        <v>59.81599483137666</v>
+        <v>59.81599483137693</v>
       </c>
       <c r="E16" t="n">
-        <v>95.9233965428111</v>
+        <v>95.92339654281145</v>
       </c>
       <c r="F16" t="n">
-        <v>134.7525646580861</v>
+        <v>134.7525646580865</v>
       </c>
       <c r="G16" t="n">
-        <v>144.1055789917423</v>
+        <v>144.1055789917428</v>
       </c>
       <c r="H16" t="n">
-        <v>156.3062068251596</v>
+        <v>156.3062068251602</v>
       </c>
       <c r="I16" t="n">
-        <v>169.4685499494114</v>
+        <v>156.3062068251602</v>
       </c>
       <c r="J16" t="n">
-        <v>226.7981199538687</v>
+        <v>213.6357768296176</v>
       </c>
       <c r="K16" t="n">
-        <v>230.051890022297</v>
+        <v>236.9174913630886</v>
       </c>
       <c r="L16" t="n">
-        <v>230.051890022297</v>
+        <v>381.4539747889288</v>
       </c>
       <c r="M16" t="n">
-        <v>381.4539747889296</v>
+        <v>381.4539747889288</v>
       </c>
       <c r="N16" t="n">
-        <v>381.4539747889296</v>
+        <v>381.4539747889288</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7166611426677</v>
+        <v>520.716661142667</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426677</v>
+        <v>520.716661142667</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426677</v>
+        <v>520.716661142667</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633078</v>
+        <v>495.1795934633073</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015778</v>
+        <v>437.3111286015774</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578857</v>
+        <v>391.2370939578853</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604133</v>
+        <v>279.6125557604129</v>
       </c>
       <c r="V16" t="n">
-        <v>211.975433506492</v>
+        <v>211.9754335064918</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117132</v>
+        <v>98.68003660117114</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099488</v>
+        <v>54.4667121009948</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961945</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040792</v>
+        <v>410.1015905040789</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210057</v>
+        <v>369.3697837210053</v>
       </c>
       <c r="E17" t="n">
         <v>294.5907522718621</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940549</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116202</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993315</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J17" t="n">
-        <v>257.5663113459878</v>
+        <v>38.41954622895933</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5663113459878</v>
+        <v>38.41954622895933</v>
       </c>
       <c r="L17" t="n">
-        <v>304.2871538267478</v>
+        <v>85.14038870971943</v>
       </c>
       <c r="M17" t="n">
-        <v>385.1490529136951</v>
+        <v>166.0022877966667</v>
       </c>
       <c r="N17" t="n">
-        <v>460.4769460493874</v>
+        <v>241.330180932359</v>
       </c>
       <c r="O17" t="n">
-        <v>494.6975807420551</v>
+        <v>275.5508156250268</v>
       </c>
       <c r="P17" t="n">
-        <v>494.6975807420551</v>
+        <v>275.5508156250268</v>
       </c>
       <c r="Q17" t="n">
-        <v>494.6975807420551</v>
+        <v>462.1637696110814</v>
       </c>
       <c r="R17" t="n">
-        <v>596.2380450312266</v>
+        <v>563.7042339002528</v>
       </c>
       <c r="S17" t="n">
-        <v>632.9356035051032</v>
+        <v>632.9356035051037</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369969</v>
+        <v>707.1675751369972</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879303</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235036</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530778</v>
+        <v>626.5008757530776</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122034</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>230.1683764065511</v>
+        <v>187.7131303372703</v>
       </c>
       <c r="C18" t="n">
-        <v>230.1683764065511</v>
+        <v>187.7131303372703</v>
       </c>
       <c r="D18" t="n">
-        <v>230.1683764065511</v>
+        <v>26.9330140983021</v>
       </c>
       <c r="E18" t="n">
-        <v>230.1683764065511</v>
+        <v>26.9330140983021</v>
       </c>
       <c r="F18" t="n">
-        <v>69.74066012379515</v>
+        <v>26.9330140983021</v>
       </c>
       <c r="G18" t="n">
-        <v>15.07983466553977</v>
+        <v>26.9330140983021</v>
       </c>
       <c r="H18" t="n">
-        <v>15.07983466553977</v>
+        <v>26.9330140983021</v>
       </c>
       <c r="I18" t="n">
         <v>15.07983466553977</v>
@@ -5595,49 +5595,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142012</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.052888959654</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="R18" t="n">
-        <v>610.9722821019998</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="S18" t="n">
-        <v>420.5703292542754</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="T18" t="n">
-        <v>230.1683764065511</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="U18" t="n">
-        <v>230.1683764065511</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="V18" t="n">
-        <v>230.1683764065511</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="W18" t="n">
-        <v>230.1683764065511</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="X18" t="n">
-        <v>230.1683764065511</v>
+        <v>556.6509361119298</v>
       </c>
       <c r="Y18" t="n">
-        <v>230.1683764065511</v>
+        <v>366.2489832642054</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.392324296194</v>
+        <v>463.3923242961945</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040786</v>
+        <v>410.1015905040789</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210052</v>
+        <v>369.3697837210053</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718621</v>
+        <v>294.590752271862</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940546</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116202</v>
+        <v>65.15430707116214</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>38.41954622895879</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J20" t="n">
-        <v>38.41954622895879</v>
+        <v>107.6509158338102</v>
       </c>
       <c r="K20" t="n">
-        <v>38.41954622895879</v>
+        <v>107.6509158338102</v>
       </c>
       <c r="L20" t="n">
-        <v>85.14038870971886</v>
+        <v>154.3717583145703</v>
       </c>
       <c r="M20" t="n">
-        <v>166.0022877966661</v>
+        <v>235.2336574015176</v>
       </c>
       <c r="N20" t="n">
-        <v>241.3301809323584</v>
+        <v>310.5615505372099</v>
       </c>
       <c r="O20" t="n">
-        <v>275.5508156250261</v>
+        <v>344.7821852298777</v>
       </c>
       <c r="P20" t="n">
-        <v>275.5508156250261</v>
+        <v>344.7821852298777</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1637696110807</v>
+        <v>531.3951392159323</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002522</v>
+        <v>632.9356035051037</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051032</v>
+        <v>632.9356035051037</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369969</v>
+        <v>707.1675751369972</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879297</v>
+        <v>730.3229325879305</v>
       </c>
       <c r="W20" t="n">
-        <v>689.465566023503</v>
+        <v>689.4655660235036</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530771</v>
+        <v>626.5008757530778</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122029</v>
+        <v>540.8060308122035</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>257.4973315425787</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="C21" t="n">
         <v>68.08505727554241</v>
@@ -5832,49 +5832,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142006</v>
+        <v>53.04316068142026</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097941</v>
+        <v>170.3760798097944</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137995</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188885</v>
+        <v>670.3666200188887</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769884</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.052888959654</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="R21" t="n">
-        <v>610.9722821019998</v>
+        <v>610.972282102</v>
       </c>
       <c r="S21" t="n">
-        <v>420.5703292542754</v>
+        <v>610.972282102</v>
       </c>
       <c r="T21" t="n">
-        <v>420.5703292542754</v>
+        <v>610.972282102</v>
       </c>
       <c r="U21" t="n">
-        <v>257.4973315425787</v>
+        <v>420.5703292542756</v>
       </c>
       <c r="V21" t="n">
-        <v>257.4973315425787</v>
+        <v>230.1683764065512</v>
       </c>
       <c r="W21" t="n">
-        <v>257.4973315425787</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="X21" t="n">
-        <v>257.4973315425787</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="Y21" t="n">
-        <v>257.4973315425787</v>
+        <v>68.08505727554241</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961943</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040788</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210052</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718618</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940551</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116201</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993315</v>
+        <v>70.95335735993305</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95335735993315</v>
+        <v>257.5663113459878</v>
       </c>
       <c r="K23" t="n">
-        <v>70.95335735993315</v>
+        <v>257.5663113459878</v>
       </c>
       <c r="L23" t="n">
-        <v>117.6741998406932</v>
+        <v>304.2871538267479</v>
       </c>
       <c r="M23" t="n">
-        <v>198.5360989276404</v>
+        <v>385.1490529136951</v>
       </c>
       <c r="N23" t="n">
-        <v>273.8639920633327</v>
+        <v>460.4769460493875</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0846267560004</v>
+        <v>494.6975807420552</v>
       </c>
       <c r="P23" t="n">
-        <v>308.0846267560004</v>
+        <v>494.6975807420552</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.1637696110803</v>
+        <v>681.3105347281099</v>
       </c>
       <c r="R23" t="n">
-        <v>563.7042339002518</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S23" t="n">
-        <v>632.9356035051028</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369964</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769879</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879298</v>
+        <v>730.3229325879303</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235032</v>
+        <v>689.4655660235034</v>
       </c>
       <c r="X23" t="n">
         <v>626.5008757530774</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122032</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>752.2683679428884</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="C24" t="n">
-        <v>562.8560936758521</v>
+        <v>557.640614692618</v>
       </c>
       <c r="D24" t="n">
-        <v>402.0759774368838</v>
+        <v>396.8604984536497</v>
       </c>
       <c r="E24" t="n">
-        <v>228.5127735582983</v>
+        <v>223.2972945750642</v>
       </c>
       <c r="F24" t="n">
-        <v>68.0850572755424</v>
+        <v>62.86957829230826</v>
       </c>
       <c r="G24" t="n">
-        <v>68.0850572755424</v>
+        <v>62.86957829230826</v>
       </c>
       <c r="H24" t="n">
-        <v>68.0850572755424</v>
+        <v>62.86957829230826</v>
       </c>
       <c r="I24" t="n">
-        <v>68.0850572755424</v>
+        <v>62.86957829230826</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068141972</v>
+        <v>53.04316068142014</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097938</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137992</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998537</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188881</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769879</v>
+        <v>753.9917332769887</v>
       </c>
       <c r="Q24" t="n">
-        <v>752.2683679428884</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="R24" t="n">
-        <v>752.2683679428884</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="S24" t="n">
-        <v>752.2683679428884</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="T24" t="n">
-        <v>752.2683679428884</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="U24" t="n">
-        <v>752.2683679428884</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="V24" t="n">
-        <v>752.2683679428884</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="W24" t="n">
-        <v>752.2683679428884</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="X24" t="n">
-        <v>752.2683679428884</v>
+        <v>747.0528889596543</v>
       </c>
       <c r="Y24" t="n">
-        <v>752.2683679428884</v>
+        <v>747.0528889596543</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553976</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.89842248961</v>
+        <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874105</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942527</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350254</v>
+        <v>597.6637583350255</v>
       </c>
       <c r="F26" t="n">
-        <v>406.032951147134</v>
+        <v>406.0329511471341</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141567</v>
+        <v>198.6052517141564</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845017</v>
+        <v>63.71974859844977</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589548</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528776</v>
+        <v>375.9427824528779</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523987</v>
+        <v>634.0135279523989</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581069</v>
+        <v>926.2253300581074</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
         <v>1458.473663923989</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757103</v>
+        <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
         <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.123159715704</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>665.6351144932711</v>
+        <v>665.6351144932709</v>
       </c>
       <c r="C27" t="n">
-        <v>665.6351144932711</v>
+        <v>476.2228402262346</v>
       </c>
       <c r="D27" t="n">
-        <v>504.8549982543028</v>
+        <v>315.4427239872663</v>
       </c>
       <c r="E27" t="n">
-        <v>331.2917943757172</v>
+        <v>141.8795201086807</v>
       </c>
       <c r="F27" t="n">
-        <v>170.8640780929613</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K27" t="n">
-        <v>73.8800254310224</v>
+        <v>73.88002543102243</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593965</v>
@@ -6315,22 +6315,22 @@
         <v>372.8895911634019</v>
       </c>
       <c r="N27" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741611</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931954</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1817761339607</v>
+        <v>786.1817761339609</v>
       </c>
       <c r="R27" t="n">
-        <v>786.1817761339607</v>
+        <v>786.1817761339609</v>
       </c>
       <c r="S27" t="n">
-        <v>786.1817761339607</v>
+        <v>786.1817761339609</v>
       </c>
       <c r="T27" t="n">
         <v>784.6805912031635</v>
@@ -6342,13 +6342,13 @@
         <v>733.258884774589</v>
       </c>
       <c r="W27" t="n">
-        <v>679.5014776503359</v>
+        <v>679.5014776503358</v>
       </c>
       <c r="X27" t="n">
-        <v>675.6346454124879</v>
+        <v>675.6346454124877</v>
       </c>
       <c r="Y27" t="n">
-        <v>665.6351144932711</v>
+        <v>665.6351144932709</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.68487474051307</v>
+        <v>71.42585097558464</v>
       </c>
       <c r="C28" t="n">
-        <v>52.68487474051307</v>
+        <v>117.983144832093</v>
       </c>
       <c r="D28" t="n">
-        <v>52.68487474051307</v>
+        <v>121.2597013348521</v>
       </c>
       <c r="E28" t="n">
-        <v>52.68487474051307</v>
+        <v>192.3502245535104</v>
       </c>
       <c r="F28" t="n">
-        <v>126.4971643630119</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="G28" t="n">
-        <v>170.833300203892</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="H28" t="n">
-        <v>218.0170495445331</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="I28" t="n">
-        <v>266.1625141760088</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="J28" t="n">
-        <v>266.1625141760088</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="K28" t="n">
-        <v>266.1625141760088</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="L28" t="n">
-        <v>266.1625141760088</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="M28" t="n">
-        <v>266.1625141760088</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="N28" t="n">
-        <v>266.1625141760088</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760088</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760088</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760088</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760088</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S28" t="n">
-        <v>243.987469890979</v>
+        <v>243.9874698909793</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239871</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032148</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259937</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737323</v>
+        <v>48.13006019737335</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389698</v>
+        <v>39.61015627389705</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874109</v>
+        <v>882.7966579874106</v>
       </c>
       <c r="D29" t="n">
-        <v>757.253820494253</v>
+        <v>757.2538204942527</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350256</v>
+        <v>597.6637583350252</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471342</v>
+        <v>406.0329511471338</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141569</v>
+        <v>198.6052517141565</v>
       </c>
       <c r="H29" t="n">
-        <v>63.7197485984502</v>
+        <v>63.71974859845025</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
         <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528779</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523988</v>
+        <v>634.0135279523989</v>
       </c>
       <c r="M29" t="n">
-        <v>926.225330058107</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N29" t="n">
         <v>1212.90312621256</v>
@@ -6482,7 +6482,7 @@
         <v>1654.882514315172</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.417797666885</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R29" t="n">
         <v>1795.834970757103</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>336.0284557972285</v>
+        <v>449.9939523478152</v>
       </c>
       <c r="C30" t="n">
-        <v>336.0284557972285</v>
+        <v>260.5816780807789</v>
       </c>
       <c r="D30" t="n">
-        <v>317.9277925300785</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="E30" t="n">
-        <v>144.3645886514929</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="F30" t="n">
-        <v>144.3645886514929</v>
+        <v>186.1637746420379</v>
       </c>
       <c r="G30" t="n">
-        <v>144.3645886514929</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H30" t="n">
-        <v>144.3645886514929</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.8800254310224</v>
+        <v>73.88002543102243</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593965</v>
@@ -6552,40 +6552,40 @@
         <v>372.8895911634019</v>
       </c>
       <c r="N30" t="n">
-        <v>577.794567574161</v>
+        <v>577.7945675741611</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931953</v>
+        <v>709.4955071931954</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512952</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1817761339607</v>
+        <v>786.1817761339609</v>
       </c>
       <c r="R30" t="n">
-        <v>650.1011692763066</v>
+        <v>786.1817761339609</v>
       </c>
       <c r="S30" t="n">
-        <v>456.5751174379184</v>
+        <v>786.1817761339609</v>
       </c>
       <c r="T30" t="n">
-        <v>455.0739325071211</v>
+        <v>784.6805912031635</v>
       </c>
       <c r="U30" t="n">
-        <v>431.0907820294569</v>
+        <v>760.6974407254993</v>
       </c>
       <c r="V30" t="n">
-        <v>403.6522260785465</v>
+        <v>733.2588847745889</v>
       </c>
       <c r="W30" t="n">
-        <v>349.8948189542934</v>
+        <v>679.5014776503357</v>
       </c>
       <c r="X30" t="n">
-        <v>346.0279867164453</v>
+        <v>675.6346454124875</v>
       </c>
       <c r="Y30" t="n">
-        <v>336.0284557972285</v>
+        <v>449.9939523478152</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514206</v>
+        <v>54.6067179623361</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91669941514206</v>
+        <v>102.7521825938117</v>
       </c>
       <c r="J31" t="n">
-        <v>35.91669941514206</v>
+        <v>102.7521825938117</v>
       </c>
       <c r="K31" t="n">
-        <v>35.91669941514206</v>
+        <v>102.7521825938117</v>
       </c>
       <c r="L31" t="n">
-        <v>35.91669941514206</v>
+        <v>102.7521825938117</v>
       </c>
       <c r="M31" t="n">
-        <v>35.91669941514206</v>
+        <v>102.7521825938117</v>
       </c>
       <c r="N31" t="n">
-        <v>35.91669941514206</v>
+        <v>102.7521825938117</v>
       </c>
       <c r="O31" t="n">
-        <v>102.7521825938114</v>
+        <v>102.7521825938117</v>
       </c>
       <c r="P31" t="n">
-        <v>256.2082727013259</v>
+        <v>256.2082727013262</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.2082727013259</v>
+        <v>256.2082727013262</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760094</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909793</v>
+        <v>243.9874698909795</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239875</v>
       </c>
       <c r="U31" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032151</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259939</v>
+        <v>125.732036525994</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737335</v>
+        <v>48.13006019737341</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389704</v>
+        <v>39.61015627389708</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514206</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>196.6771705977754</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465901</v>
+        <v>62.62773805465899</v>
       </c>
       <c r="I32" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559494</v>
+        <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
         <v>377.325708018068</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857846</v>
+        <v>636.2158862857847</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3311676570752</v>
+        <v>929.2471211596885</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579724</v>
+        <v>1216.744350082337</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059348</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
         <v>1640.446650218727</v>
@@ -6725,7 +6725,7 @@
         <v>1783.037972197049</v>
       </c>
       <c r="S32" t="n">
-        <v>1769.70005889646</v>
+        <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
         <v>1761.464280099537</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>670.3955979576106</v>
+        <v>491.8597450306756</v>
       </c>
       <c r="C33" t="n">
-        <v>480.9833236905743</v>
+        <v>302.4474707636393</v>
       </c>
       <c r="D33" t="n">
-        <v>320.203207451606</v>
+        <v>141.6673545246711</v>
       </c>
       <c r="E33" t="n">
-        <v>146.6400035730204</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="F33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="G33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="H33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="I33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="J33" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982132</v>
+        <v>73.62408545982134</v>
       </c>
       <c r="L33" t="n">
         <v>190.9570045881954</v>
@@ -6789,40 +6789,40 @@
         <v>372.6336511922008</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029599</v>
+        <v>577.53862760296</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219942</v>
+        <v>709.2395672219943</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800941</v>
+        <v>792.8646804800942</v>
       </c>
       <c r="Q33" t="n">
-        <v>785.9258361627597</v>
+        <v>785.9258361627598</v>
       </c>
       <c r="R33" t="n">
-        <v>785.9258361627597</v>
+        <v>785.9258361627598</v>
       </c>
       <c r="S33" t="n">
-        <v>785.9258361627597</v>
+        <v>785.9258361627598</v>
       </c>
       <c r="T33" t="n">
-        <v>785.2607218045525</v>
+        <v>785.2607218045526</v>
       </c>
       <c r="U33" t="n">
-        <v>762.1136418994784</v>
+        <v>762.1136418994785</v>
       </c>
       <c r="V33" t="n">
-        <v>735.5111565211581</v>
+        <v>735.5111565211582</v>
       </c>
       <c r="W33" t="n">
-        <v>682.5898199694951</v>
+        <v>682.5898199694952</v>
       </c>
       <c r="X33" t="n">
-        <v>679.5590583042372</v>
+        <v>679.5590583042373</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.3955979576106</v>
+        <v>670.3955979576107</v>
       </c>
     </row>
     <row r="34">
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="C34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="D34" t="n">
-        <v>104.099271482694</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="E34" t="n">
-        <v>104.099271482694</v>
+        <v>35.66075944394099</v>
       </c>
       <c r="F34" t="n">
-        <v>104.099271482694</v>
+        <v>110.2924818346354</v>
       </c>
       <c r="G34" t="n">
-        <v>104.099271482694</v>
+        <v>155.448050443711</v>
       </c>
       <c r="H34" t="n">
-        <v>104.099271482694</v>
+        <v>203.4512325525477</v>
       </c>
       <c r="I34" t="n">
-        <v>104.099271482694</v>
+        <v>252.4161299522188</v>
       </c>
       <c r="J34" t="n">
-        <v>197.2313957625706</v>
+        <v>252.4161299522188</v>
       </c>
       <c r="K34" t="n">
-        <v>260.0540801966771</v>
+        <v>252.4161299522188</v>
       </c>
       <c r="L34" t="n">
-        <v>260.0540801966771</v>
+        <v>252.4161299522188</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0540801966771</v>
+        <v>252.4161299522188</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966771</v>
+        <v>252.4161299522188</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966771</v>
+        <v>252.4161299522188</v>
       </c>
       <c r="P34" t="n">
         <v>260.0540801966771</v>
@@ -6895,13 +6895,13 @@
         <v>122.9678848370224</v>
       </c>
       <c r="W34" t="n">
-        <v>46.20197908099198</v>
+        <v>46.20197908099199</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010582</v>
+        <v>38.51814573010583</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.66075944394098</v>
+        <v>35.66075944394099</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361097</v>
+        <v>623.0190675361092</v>
       </c>
       <c r="C35" t="n">
-        <v>544.083381551352</v>
+        <v>544.0833815513515</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756366</v>
+        <v>477.7066225756359</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338514</v>
+        <v>377.2826389338506</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634022</v>
+        <v>244.8179102634017</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786671</v>
+        <v>96.55628934786677</v>
       </c>
       <c r="H35" t="n">
         <v>20.83686474960229</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998709</v>
+        <v>51.57576979998704</v>
       </c>
       <c r="J35" t="n">
-        <v>244.9005435987451</v>
+        <v>244.900543598745</v>
       </c>
       <c r="K35" t="n">
-        <v>432.8985180875158</v>
+        <v>502.7567448750733</v>
       </c>
       <c r="L35" t="n">
-        <v>479.6193605682759</v>
+        <v>549.4775873558334</v>
       </c>
       <c r="M35" t="n">
-        <v>560.4812596552231</v>
+        <v>630.3394864427806</v>
       </c>
       <c r="N35" t="n">
-        <v>635.8091527909154</v>
+        <v>705.6673795784729</v>
       </c>
       <c r="O35" t="n">
-        <v>670.029787483583</v>
+        <v>739.8880142711407</v>
       </c>
       <c r="P35" t="n">
-        <v>670.029787483583</v>
+        <v>739.8880142711407</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902414</v>
+        <v>850.5537443902417</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9595910354043</v>
+        <v>926.9595910354045</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962467</v>
+        <v>971.0563429962468</v>
       </c>
       <c r="T35" t="n">
         <v>1020.153696984132</v>
@@ -6971,16 +6971,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984142</v>
+        <v>992.5294845984138</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413454</v>
+        <v>926.0271658413449</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782771</v>
+        <v>837.4175233782768</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447607</v>
+        <v>726.0777262447604</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>705.0201754169483</v>
+        <v>371.0292552556068</v>
       </c>
       <c r="C36" t="n">
-        <v>515.607901149912</v>
+        <v>181.6169809885705</v>
       </c>
       <c r="D36" t="n">
-        <v>354.8277849109437</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2645810323582</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F36" t="n">
         <v>20.83686474960229</v>
@@ -7017,49 +7017,49 @@
         <v>20.83686474960229</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548263</v>
+        <v>58.80019076548265</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1331098938567</v>
+        <v>176.1331098938568</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978621</v>
+        <v>357.8097564978622</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086213</v>
+        <v>562.7147329086214</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276556</v>
+        <v>694.4156725276557</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857555</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.101941468421</v>
+        <v>775.2058012472144</v>
       </c>
       <c r="R36" t="n">
-        <v>771.101941468421</v>
+        <v>775.2058012472144</v>
       </c>
       <c r="S36" t="n">
-        <v>771.101941468421</v>
+        <v>775.2058012472144</v>
       </c>
       <c r="T36" t="n">
-        <v>771.101941468421</v>
+        <v>775.2058012472144</v>
       </c>
       <c r="U36" t="n">
-        <v>771.101941468421</v>
+        <v>775.2058012472144</v>
       </c>
       <c r="V36" t="n">
-        <v>771.101941468421</v>
+        <v>775.2058012472144</v>
       </c>
       <c r="W36" t="n">
-        <v>771.101941468421</v>
+        <v>775.2058012472144</v>
       </c>
       <c r="X36" t="n">
-        <v>771.101941468421</v>
+        <v>775.2058012472144</v>
       </c>
       <c r="Y36" t="n">
-        <v>771.101941468421</v>
+        <v>549.565108182542</v>
       </c>
     </row>
     <row r="37">
@@ -7102,34 +7102,34 @@
         <v>20.83686474960229</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="R37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="S37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078062</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078062</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W37" t="n">
         <v>20.83686474960229</v>
@@ -7169,40 +7169,40 @@
         <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998703</v>
+        <v>51.57576979998704</v>
       </c>
       <c r="J38" t="n">
-        <v>244.9005435987449</v>
+        <v>244.900543598745</v>
       </c>
       <c r="K38" t="n">
-        <v>277.5937563941179</v>
+        <v>432.8985180875161</v>
       </c>
       <c r="L38" t="n">
-        <v>324.314598874878</v>
+        <v>479.6193605682762</v>
       </c>
       <c r="M38" t="n">
-        <v>582.1708001512063</v>
+        <v>560.4812596552234</v>
       </c>
       <c r="N38" t="n">
-        <v>657.4986932868986</v>
+        <v>635.8091527909157</v>
       </c>
       <c r="O38" t="n">
-        <v>691.7193279795663</v>
+        <v>670.0297874835835</v>
       </c>
       <c r="P38" t="n">
-        <v>691.7193279795663</v>
+        <v>670.0297874835835</v>
       </c>
       <c r="Q38" t="n">
-        <v>872.2432848862245</v>
+        <v>850.5537443902417</v>
       </c>
       <c r="R38" t="n">
-        <v>948.6491315313873</v>
+        <v>926.9595910354045</v>
       </c>
       <c r="S38" t="n">
-        <v>992.7458834922296</v>
+        <v>971.0563429962468</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.83686474960229</v>
+        <v>705.0201754169483</v>
       </c>
       <c r="C39" t="n">
-        <v>20.83686474960229</v>
+        <v>515.607901149912</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83686474960229</v>
+        <v>354.8277849109437</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83686474960229</v>
+        <v>181.2645810323582</v>
       </c>
       <c r="F39" t="n">
         <v>20.83686474960229</v>
@@ -7254,49 +7254,49 @@
         <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548263</v>
+        <v>58.80019076548265</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1331098938567</v>
+        <v>176.1331098938568</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978621</v>
+        <v>357.8097564978622</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086213</v>
+        <v>562.7147329086214</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276556</v>
+        <v>694.4156725276557</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857555</v>
+        <v>778.0407857857556</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.101941468421</v>
+        <v>771.1019414684212</v>
       </c>
       <c r="R39" t="n">
-        <v>771.101941468421</v>
+        <v>771.1019414684212</v>
       </c>
       <c r="S39" t="n">
-        <v>771.101941468421</v>
+        <v>771.1019414684212</v>
       </c>
       <c r="T39" t="n">
-        <v>771.101941468421</v>
+        <v>771.1019414684212</v>
       </c>
       <c r="U39" t="n">
-        <v>746.5163038656644</v>
+        <v>771.1019414684212</v>
       </c>
       <c r="V39" t="n">
-        <v>503.4365857692985</v>
+        <v>771.1019414684212</v>
       </c>
       <c r="W39" t="n">
-        <v>240.3448591329059</v>
+        <v>771.1019414684212</v>
       </c>
       <c r="X39" t="n">
-        <v>20.83686474960229</v>
+        <v>771.1019414684212</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.83686474960229</v>
+        <v>771.1019414684212</v>
       </c>
     </row>
     <row r="40">
@@ -7315,7 +7315,7 @@
         <v>20.83686474960229</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="F40" t="n">
         <v>56.03780166411086</v>
@@ -7409,22 +7409,22 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323785</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308618</v>
+        <v>422.5915955308619</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9121095349432</v>
+        <v>523.461767566887</v>
       </c>
       <c r="M41" t="n">
-        <v>1027.373680145212</v>
+        <v>604.3236666538343</v>
       </c>
       <c r="N41" t="n">
-        <v>1102.701573280904</v>
+        <v>679.6515597895266</v>
       </c>
       <c r="O41" t="n">
-        <v>1136.922207973572</v>
+        <v>952.4718660055156</v>
       </c>
       <c r="P41" t="n">
         <v>1176.130484901259</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.06597548400537</v>
+        <v>431.2635886000126</v>
       </c>
       <c r="C42" t="n">
-        <v>28.06597548400537</v>
+        <v>241.8513143329762</v>
       </c>
       <c r="D42" t="n">
-        <v>28.06597548400537</v>
+        <v>81.071198094008</v>
       </c>
       <c r="E42" t="n">
-        <v>28.06597548400537</v>
+        <v>81.071198094008</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06597548400537</v>
+        <v>81.071198094008</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06597548400537</v>
+        <v>81.071198094008</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400537</v>
+        <v>81.071198094008</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400537</v>
+        <v>81.071198094008</v>
       </c>
       <c r="J42" t="n">
         <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.0293014998857</v>
+        <v>66.02930149988573</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282598</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322651</v>
+        <v>365.0388672322652</v>
       </c>
       <c r="N42" t="n">
         <v>569.9438436430244</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6447832620587</v>
+        <v>701.6447832620588</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.3310522028241</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="R42" t="n">
-        <v>778.3310522028241</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="S42" t="n">
-        <v>778.3310522028241</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="T42" t="n">
-        <v>778.3310522028241</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="U42" t="n">
-        <v>760.0522572333837</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="V42" t="n">
-        <v>516.9725391370177</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="W42" t="n">
-        <v>247.573969867309</v>
+        <v>752.3766942618793</v>
       </c>
       <c r="X42" t="n">
-        <v>28.06597548400537</v>
+        <v>752.3766942618793</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.06597548400537</v>
+        <v>609.7994415269477</v>
       </c>
     </row>
     <row r="43">
@@ -7582,7 +7582,7 @@
         <v>28.06597548400537</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="P43" t="n">
         <v>130.133623560695</v>
@@ -7631,10 +7631,10 @@
         <v>610.3878506465755</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706558</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660725</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
@@ -7646,22 +7646,22 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6518442323785</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5915955308618</v>
+        <v>422.5915955308619</v>
       </c>
       <c r="L44" t="n">
-        <v>508.5207149393092</v>
+        <v>707.9121095349433</v>
       </c>
       <c r="M44" t="n">
-        <v>827.9822855495777</v>
+        <v>788.7740086218905</v>
       </c>
       <c r="N44" t="n">
-        <v>1141.909850208591</v>
+        <v>1102.701573280904</v>
       </c>
       <c r="O44" t="n">
-        <v>1176.130484901259</v>
+        <v>1136.922207973572</v>
       </c>
       <c r="P44" t="n">
         <v>1176.130484901259</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>81.07119809400801</v>
+        <v>217.4782497510417</v>
       </c>
       <c r="C45" t="n">
-        <v>81.07119809400801</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D45" t="n">
-        <v>81.07119809400801</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E45" t="n">
-        <v>81.07119809400801</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F45" t="n">
-        <v>81.07119809400801</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="G45" t="n">
-        <v>81.07119809400801</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="H45" t="n">
-        <v>81.07119809400801</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I45" t="n">
-        <v>81.07119809400801</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J45" t="n">
         <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
-        <v>66.0293014998857</v>
+        <v>66.02930149988573</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282598</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322651</v>
+        <v>365.0388672322652</v>
       </c>
       <c r="N45" t="n">
         <v>569.9438436430244</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620587</v>
+        <v>701.6447832620588</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201586</v>
+        <v>785.2698965201587</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.3310522028241</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="R45" t="n">
-        <v>743.3346480142663</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="S45" t="n">
-        <v>549.8085961758782</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="T45" t="n">
-        <v>332.6662490996254</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="U45" t="n">
-        <v>332.6662490996254</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="V45" t="n">
-        <v>332.6662490996254</v>
+        <v>778.3310522028243</v>
       </c>
       <c r="W45" t="n">
-        <v>306.7118911586804</v>
+        <v>752.3766942618793</v>
       </c>
       <c r="X45" t="n">
-        <v>306.7118911586804</v>
+        <v>621.6547957426492</v>
       </c>
       <c r="Y45" t="n">
-        <v>81.07119809400801</v>
+        <v>396.0141026779768</v>
       </c>
     </row>
     <row r="46">
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.96538615316655</v>
+        <v>50.1840981146911</v>
       </c>
       <c r="C46" t="n">
-        <v>46.96538615316655</v>
+        <v>50.1840981146911</v>
       </c>
       <c r="D46" t="n">
-        <v>46.96538615316655</v>
+        <v>50.1840981146911</v>
       </c>
       <c r="E46" t="n">
-        <v>46.96538615316655</v>
+        <v>50.1840981146911</v>
       </c>
       <c r="F46" t="n">
-        <v>46.96538615316655</v>
+        <v>50.1840981146911</v>
       </c>
       <c r="G46" t="n">
-        <v>46.96538615316655</v>
+        <v>50.1840981146911</v>
       </c>
       <c r="H46" t="n">
-        <v>46.96538615316655</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="I46" t="n">
-        <v>92.92961358145149</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="J46" t="n">
-        <v>92.92961358145149</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="K46" t="n">
-        <v>92.92961358145149</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="L46" t="n">
-        <v>92.92961358145149</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="M46" t="n">
-        <v>92.92961358145149</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="N46" t="n">
-        <v>92.92961358145149</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="O46" t="n">
-        <v>92.92961358145149</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="P46" t="n">
-        <v>92.92961358145149</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="Q46" t="n">
-        <v>92.92961358145149</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598925</v>
       </c>
       <c r="S46" t="n">
         <v>130.133623560695</v>
@@ -7846,10 +7846,10 @@
         <v>28.06597548400537</v>
       </c>
       <c r="X46" t="n">
-        <v>46.96538615316655</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.96538615316655</v>
+        <v>50.1840981146911</v>
       </c>
     </row>
   </sheetData>
@@ -8532,19 +8532,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>171.2365425770137</v>
       </c>
       <c r="L9" t="n">
         <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4735084131581</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
         <v>163.4361383816801</v>
       </c>
       <c r="O9" t="n">
-        <v>177.1666678622357</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
         <v>163.4487770454829</v>
@@ -9258,7 +9258,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786794</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.3734735841509</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3734735841506</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466382</v>
+        <v>292.1370682466384</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>195.9389762247654</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.0572332281109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085684</v>
+        <v>193.3306479085682</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869457</v>
+        <v>36.55305216769838</v>
       </c>
       <c r="G11" t="n">
-        <v>160.0612582595995</v>
+        <v>229.9445103802696</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240826</v>
+        <v>62.86150506240811</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538039</v>
+        <v>49.36873040538024</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675145</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958195</v>
+        <v>72.00227733958181</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726989</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>181.6344501416382</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653821</v>
+        <v>204.1373032653819</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.441042905518373</v>
+        <v>7.441042905518231</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891594</v>
+        <v>159.6238954891593</v>
       </c>
       <c r="E14" t="n">
-        <v>4.832714589321199</v>
+        <v>193.3306479085682</v>
       </c>
       <c r="F14" t="n">
-        <v>131.3168642970976</v>
+        <v>225.0509854869455</v>
       </c>
       <c r="G14" t="n">
-        <v>240.6899088095807</v>
+        <v>208.3684960657284</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554827</v>
+        <v>168.8731344554826</v>
       </c>
       <c r="I14" t="n">
-        <v>62.8615050624082</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538033</v>
+        <v>49.36873040538024</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675141</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.748199672699</v>
+        <v>159.7481996726989</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>181.6344501416382</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.137303265382</v>
+        <v>204.1373032653819</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1339555.504878442</v>
+        <v>1339555.504878443</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1339555.504878442</v>
+        <v>1339555.504878443</v>
       </c>
     </row>
     <row r="7">
@@ -26320,10 +26320,10 @@
         <v>22061.03289297874</v>
       </c>
       <c r="E2" t="n">
-        <v>18993.38571872835</v>
+        <v>18993.38571872838</v>
       </c>
       <c r="F2" t="n">
-        <v>18993.38571872834</v>
+        <v>18993.38571872836</v>
       </c>
       <c r="G2" t="n">
         <v>22092.96372146342</v>
@@ -26332,13 +26332,13 @@
         <v>22092.96372146342</v>
       </c>
       <c r="I2" t="n">
-        <v>22092.96372146342</v>
+        <v>22092.96372146341</v>
       </c>
       <c r="J2" t="n">
-        <v>22092.96372146342</v>
+        <v>22092.96372146343</v>
       </c>
       <c r="K2" t="n">
-        <v>22092.96372146342</v>
+        <v>22092.96372146343</v>
       </c>
       <c r="L2" t="n">
         <v>22092.96372146344</v>
@@ -26353,7 +26353,7 @@
         <v>22092.96372146342</v>
       </c>
       <c r="P2" t="n">
-        <v>22092.96372146343</v>
+        <v>22092.96372146342</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.115178714</v>
+        <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913334</v>
+        <v>95439.52541913318</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068793</v>
+        <v>143496.2830068794</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262473</v>
+        <v>96101.69331262459</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232284</v>
+        <v>46197.3662923228</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924374</v>
+        <v>72254.9148592439</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>408917.9495512589</v>
       </c>
       <c r="E4" t="n">
-        <v>296218.5005573042</v>
+        <v>296218.5005573043</v>
       </c>
       <c r="F4" t="n">
-        <v>296218.5005573042</v>
+        <v>296218.5005573043</v>
       </c>
       <c r="G4" t="n">
         <v>366826.3686005261</v>
@@ -26442,19 +26442,19 @@
         <v>367614.5661588978</v>
       </c>
       <c r="K4" t="n">
-        <v>367614.5661588978</v>
+        <v>367614.5661588977</v>
       </c>
       <c r="L4" t="n">
-        <v>367599.7761915192</v>
+        <v>367599.7761915191</v>
       </c>
       <c r="M4" t="n">
-        <v>366789.8388182007</v>
+        <v>366789.8388182006</v>
       </c>
       <c r="N4" t="n">
-        <v>366789.8388182007</v>
+        <v>366789.8388182006</v>
       </c>
       <c r="O4" t="n">
-        <v>367176.9014819183</v>
+        <v>367176.9014819184</v>
       </c>
       <c r="P4" t="n">
         <v>367176.9014819184</v>
@@ -26476,10 +26476,10 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774777</v>
+        <v>28642.9569377478</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.95693774778</v>
+        <v>28642.9569377478</v>
       </c>
       <c r="G5" t="n">
         <v>38672.33876582418</v>
@@ -26491,7 +26491,7 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.6772201635</v>
+        <v>47449.67722016351</v>
       </c>
       <c r="K5" t="n">
         <v>47449.6772201635</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420659.4231738038</v>
+        <v>-420663.889558009</v>
       </c>
       <c r="C6" t="n">
-        <v>-420659.4231738038</v>
+        <v>-420663.889558009</v>
       </c>
       <c r="D6" t="n">
-        <v>-421672.8139520704</v>
+        <v>-421676.0070349189</v>
       </c>
       <c r="E6" t="n">
-        <v>-584994.1869550376</v>
+        <v>-585304.1447553114</v>
       </c>
       <c r="F6" t="n">
-        <v>-305868.0717763237</v>
+        <v>-306178.0295765972</v>
       </c>
       <c r="G6" t="n">
-        <v>-478845.2690640202</v>
+        <v>-478845.26906402</v>
       </c>
       <c r="H6" t="n">
-        <v>-383405.7436448869</v>
+        <v>-383405.7436448868</v>
       </c>
       <c r="I6" t="n">
         <v>-383405.7436448869</v>
       </c>
       <c r="J6" t="n">
-        <v>-536467.5626644772</v>
+        <v>-536467.5626644773</v>
       </c>
       <c r="K6" t="n">
-        <v>-392971.2796575979</v>
+        <v>-392971.2796575978</v>
       </c>
       <c r="L6" t="n">
-        <v>-488933.2533655285</v>
+        <v>-488933.2533655283</v>
       </c>
       <c r="M6" t="n">
         <v>-431807.5369877474</v>
@@ -26558,7 +26558,7 @@
         <v>-385610.1706954245</v>
       </c>
       <c r="O6" t="n">
-        <v>-461135.9804485718</v>
+        <v>-461135.9804485721</v>
       </c>
       <c r="P6" t="n">
         <v>-388881.0655893282</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
         <v>213.484750524001</v>
@@ -26716,7 +26716,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="N2" t="n">
         <v>272.0591682562687</v>
@@ -26796,22 +26796,22 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="I4" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892758</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
         <v>448.9587426892758</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739167</v>
+        <v>119.2994067739165</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008431</v>
+        <v>94.18534375008451</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407809</v>
+        <v>120.1271166407807</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540355</v>
+        <v>57.74670786540349</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929164</v>
+        <v>63.13594470929183</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792336</v>
+        <v>185.2986836792337</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700288</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739167</v>
+        <v>119.2994067739165</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008431</v>
+        <v>94.18534375008451</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792336</v>
+        <v>185.2986836792337</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C8" t="n">
-        <v>350.3354128343698</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D8" t="n">
         <v>337.7721596422273</v>
@@ -27913,7 +27913,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W8" t="n">
-        <v>337.8964638257669</v>
+        <v>338.0263792789579</v>
       </c>
       <c r="X8" t="n">
         <v>359.7827142947061</v>
@@ -27944,16 +27944,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>145.7629687550784</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>111.6565698077035</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>69.83566399273495</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,16 +27974,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>31.82978284919219</v>
       </c>
       <c r="R9" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>192.4336248079265</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>213.0301613335635</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K11" t="n">
-        <v>6.785212809893761</v>
+        <v>6.727192146300979</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.05802066359227354</v>
       </c>
       <c r="O11" t="n">
         <v>153.9316356498858</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28187,7 +28187,7 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T12" t="n">
-        <v>67.44766281320477</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W12" t="n">
-        <v>78.20665025776449</v>
+        <v>152.7378329450468</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>28.81498112022345</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>34.88635281477846</v>
       </c>
     </row>
     <row r="13">
@@ -28248,7 +28248,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530678</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
@@ -28260,61 +28260,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I13" t="n">
-        <v>171.7683266947476</v>
+        <v>170.2394353904655</v>
       </c>
       <c r="J13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013919</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L13" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="N13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="O13" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530678</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q13" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="14">
@@ -28354,7 +28354,7 @@
         <v>178.1482641530679</v>
       </c>
       <c r="L14" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28366,7 +28366,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>19.4116853231182</v>
+        <v>160.7168484597791</v>
       </c>
       <c r="Q14" t="n">
         <v>178.1482641530679</v>
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>125.7355245857741</v>
@@ -28454,13 +28454,13 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>167.709030702408</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T15" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="U15" t="n">
-        <v>48.73013617764151</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V15" t="n">
         <v>178.1482641530679</v>
@@ -28469,10 +28469,10 @@
         <v>178.1482641530679</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530679</v>
+        <v>152.1491543868291</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530679</v>
+        <v>34.88635281477846</v>
       </c>
     </row>
     <row r="16">
@@ -28503,22 +28503,22 @@
         <v>178.1482641530679</v>
       </c>
       <c r="I16" t="n">
-        <v>178.1482641530679</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
         <v>178.1482641530679</v>
       </c>
       <c r="K16" t="n">
-        <v>70.31661657194584</v>
+        <v>90.54686350633244</v>
       </c>
       <c r="L16" t="n">
-        <v>32.1518162481789</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="M16" t="n">
-        <v>178.1482641530679</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O16" t="n">
         <v>178.1482641530679</v>
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269845</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2795522838412</v>
+        <v>100.3570851902704</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146301007</v>
+        <v>6.727192146300979</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108881</v>
+        <v>15.09197235108877</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.711737037422</v>
+        <v>278.2096703566691</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S17" t="n">
-        <v>264.5852354411518</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="18">
@@ -28640,31 +28640,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>94.63038727095397</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439874</v>
+        <v>95.62876270555266</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
-        <v>3.092858000757217</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>26.47299028624318</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280694968886</v>
@@ -28706,10 +28706,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022345</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477846</v>
       </c>
     </row>
     <row r="19">
@@ -28746,19 +28746,19 @@
         <v>120.239607582909</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L19" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889347</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P19" t="n">
         <v>58.47859890024888</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>264.5852354411518</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459407</v>
+        <v>170.2877615588067</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146301007</v>
+        <v>6.727192146300979</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108881</v>
+        <v>15.09197235108877</v>
       </c>
       <c r="Q20" t="n">
         <v>278.2096703566691</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269845</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28928,19 +28928,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.092858000757218</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T21" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>75.78580176230889</v>
+        <v>48.73013617764147</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615509</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>106.2420976373129</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28983,19 +28983,19 @@
         <v>120.239607582909</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L22" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889347</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P22" t="n">
         <v>58.47859890024888</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459407</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146301007</v>
+        <v>6.727192146300979</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,34 +29077,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108881</v>
+        <v>15.09197235108877</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.347234870836</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269845</v>
+        <v>268.2968974519415</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4476709269845</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4476709269845</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="24">
@@ -29138,7 +29138,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>5.163324193401806</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.163324193402528</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890777</v>
@@ -29220,19 +29220,19 @@
         <v>120.239607582909</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L25" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889347</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P25" t="n">
         <v>58.47859890024888</v>
@@ -29299,7 +29299,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4847505240006</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L26" t="n">
         <v>213.484750524001</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29363,10 +29363,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>53.92024663332506</v>
       </c>
       <c r="G27" t="n">
-        <v>15.14669958358573</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
         <v>125.7355245857741</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29430,46 +29430,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>194.5544714986762</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>148.4923032838008</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F28" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="G28" t="n">
-        <v>213.484750524001</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H28" t="n">
-        <v>213.484750524001</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I28" t="n">
-        <v>213.484750524001</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
         <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L28" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889347</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O28" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P28" t="n">
         <v>58.47859890024888</v>
@@ -29591,28 +29591,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>141.2526584421</v>
+        <v>85.49859067222486</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,10 +29636,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
         <v>213.484750524001</v>
@@ -29657,7 +29657,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29685,28 +29685,28 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H31" t="n">
-        <v>165.8243976546666</v>
+        <v>184.7032042679939</v>
       </c>
       <c r="I31" t="n">
-        <v>164.852968067965</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J31" t="n">
         <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L31" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889347</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O31" t="n">
-        <v>104.9894730671398</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P31" t="n">
         <v>213.484750524001</v>
@@ -29779,13 +29779,13 @@
         <v>214.3124603908652</v>
       </c>
       <c r="M32" t="n">
-        <v>194.1953356407509</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="N32" t="n">
         <v>214.3124603908652</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407509</v>
       </c>
       <c r="P32" t="n">
         <v>214.3124603908652</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29834,10 +29834,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>66.88104270987689</v>
       </c>
       <c r="F33" t="n">
-        <v>48.95398743213968</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29849,7 +29849,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29910,43 +29910,43 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>214.3124603908652</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7007749271525</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="H34" t="n">
-        <v>165.8243976546666</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="I34" t="n">
-        <v>164.852968067965</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="J34" t="n">
-        <v>214.3124603908652</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>130.487237143338</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L34" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889347</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O34" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024888</v>
+        <v>66.19370015727749</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2169859636892</v>
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="K35" t="n">
-        <v>196.6241360743522</v>
+        <v>267.1880015163296</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.09197235108881</v>
+        <v>15.09197235108877</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0591682562688</v>
+        <v>201.4953028142917</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
     </row>
     <row r="36">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>111.3295460067077</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30071,10 +30071,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30086,7 +30086,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>4.062821181005235</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890777</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30168,19 +30168,19 @@
         <v>120.239607582909</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L37" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889347</v>
+        <v>60.77336733274049</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P37" t="n">
         <v>58.47859890024888</v>
@@ -30195,16 +30195,16 @@
         <v>235.4380443661806</v>
       </c>
       <c r="T37" t="n">
-        <v>259.3180603841699</v>
+        <v>223.761558450323</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30247,13 +30247,13 @@
         <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
-        <v>39.75063941435452</v>
+        <v>196.6241360743526</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>178.7821234236173</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.09197235108881</v>
+        <v>15.09197235108877</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0591682562687</v>
@@ -30277,7 +30277,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>111.3295460067076</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446044746268</v>
@@ -30323,7 +30323,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390261</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30356,16 +30356,16 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>212.8882882701596</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243774206982948</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30387,10 +30387,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>177.232643146072</v>
       </c>
       <c r="F40" t="n">
-        <v>174.4833841522937</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>168.7007749271525</v>
@@ -30405,19 +30405,19 @@
         <v>120.239607582909</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L40" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889347</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O40" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P40" t="n">
         <v>58.47859890024888</v>
@@ -30487,19 +30487,19 @@
         <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
+        <v>54.69629248006572</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="M41" t="n">
+      <c r="P41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>54.69629248006574</v>
       </c>
       <c r="Q41" t="n">
         <v>241.009769215476</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30560,7 +30560,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390261</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30593,19 +30593,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>219.1320624771426</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>82.23280592644338</v>
       </c>
     </row>
     <row r="43">
@@ -30642,22 +30642,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L43" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889347</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O43" t="n">
-        <v>140.5775184186754</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024888</v>
+        <v>161.5772333211475</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
@@ -30724,10 +30724,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>39.60432012897708</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>241.009769215476</v>
@@ -30736,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>15.09197235108881</v>
+        <v>54.69629248006571</v>
       </c>
       <c r="Q44" t="n">
         <v>241.009769215476</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30797,7 +30797,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.0733606424054</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280694968886</v>
@@ -30839,7 +30839,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>87.89823490543284</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30870,28 +30870,28 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H46" t="n">
-        <v>165.8243976546666</v>
+        <v>241.009769215476</v>
       </c>
       <c r="I46" t="n">
-        <v>211.2814806217882</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J46" t="n">
         <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013919</v>
+        <v>67.02998013918997</v>
       </c>
       <c r="L46" t="n">
-        <v>32.1518162481789</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889347</v>
+        <v>25.21686539889345</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928137</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777682</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P46" t="n">
         <v>58.47859890024888</v>
@@ -30900,10 +30900,10 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R46" t="n">
+        <v>203.4299611556341</v>
+      </c>
+      <c r="S46" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="S46" t="n">
-        <v>235.4380443661806</v>
       </c>
       <c r="T46" t="n">
         <v>223.761558450323</v>
@@ -30918,10 +30918,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="X46" t="n">
-        <v>241.009769215476</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.1412728141684</v>
+        <v>239.4828108249621</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217847</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I11" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J11" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246052</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L11" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032858</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556013</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521929</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729616</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133246</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427547</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935656</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971355</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014373</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M13" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q13" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542646</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679426</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590769</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217847</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I14" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J14" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246052</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L14" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032858</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556013</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521929</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729616</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133246</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427547</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935656</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971355</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014373</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M16" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q16" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542646</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679426</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590769</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217847</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I17" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J17" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246052</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L17" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032858</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556013</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521929</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729616</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133246</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427547</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935656</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971355</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014373</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M19" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q19" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542646</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679426</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590769</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217847</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I20" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J20" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246052</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L20" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032858</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556013</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521929</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729616</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133246</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427547</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935656</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971355</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014373</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M22" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q22" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542646</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679426</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590769</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217847</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I23" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J23" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246052</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L23" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032858</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556013</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521929</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729616</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133246</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427547</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935656</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971355</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014373</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M25" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q25" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542646</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679426</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590769</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217847</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I26" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J26" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246052</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L26" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032858</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556013</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521929</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729616</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133246</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427547</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935656</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971355</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014373</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M28" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q28" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542646</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679426</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590769</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217847</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I29" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J29" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246052</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L29" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032858</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556013</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521929</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729616</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133246</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427547</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935656</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971355</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014373</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M31" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q31" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542646</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679426</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590769</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217847</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I32" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J32" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246052</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L32" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032858</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556013</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521929</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729616</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133246</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427547</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R33" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935656</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971355</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014373</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M34" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q34" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542646</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679426</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590769</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217847</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I35" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J35" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246052</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L35" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032858</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556013</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521929</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729616</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133246</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427547</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R36" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935656</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971355</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014373</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M37" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q37" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542646</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679426</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590769</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217847</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I38" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J38" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246052</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L38" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032858</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556013</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521929</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729616</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133246</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427547</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R39" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935656</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971355</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014373</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M40" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q40" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542646</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679426</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590769</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217847</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I41" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J41" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246052</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L41" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032858</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556013</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521929</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729616</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133246</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427547</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R42" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935656</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971355</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014373</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M43" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q43" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542646</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679426</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590769</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631731</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217847</v>
+        <v>4.16531231021785</v>
       </c>
       <c r="I44" t="n">
         <v>15.68003933501025</v>
       </c>
       <c r="J44" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246052</v>
+        <v>51.73619878246055</v>
       </c>
       <c r="L44" t="n">
-        <v>64.1833294172785</v>
+        <v>64.18332941727853</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032858</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401894</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556013</v>
+        <v>68.52759814556018</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521929</v>
+        <v>58.48671957521933</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178814</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318169</v>
+        <v>25.54857067318171</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610817</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168791</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705384</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.217613920465013</v>
+        <v>0.2176139204650132</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101692337122626</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729616</v>
+        <v>7.49240910372962</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000169</v>
+        <v>35.13987592000171</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447575</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133246</v>
+        <v>55.13840432133249</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427547</v>
+        <v>56.59775381427551</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134018</v>
+        <v>51.77588747134021</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862166</v>
+        <v>41.55471433862168</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.778226057955</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935656</v>
+        <v>4.042083127935658</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971355</v>
+        <v>0.877136810997136</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375086</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924972</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773296</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014373</v>
+        <v>5.486474402014376</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602955</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752831</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600455</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M46" t="n">
-        <v>28.5983307478639</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309189</v>
+        <v>27.91832636309191</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221258</v>
       </c>
       <c r="Q46" t="n">
         <v>15.27687899545175</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542646</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629246</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679426</v>
+        <v>0.7795172215679429</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590769</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35149,7 +35149,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -35209,7 +35209,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="L9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
-        <v>3.069987028295762</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="O9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884737</v>
+        <v>101.3666451884739</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0580206635927534</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258593</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641133</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514374</v>
+        <v>76.14680160873606</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P11" t="n">
-        <v>163.056291801979</v>
+        <v>163.0562918019792</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.4365271156458</v>
+        <v>88.43652711564596</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35498,13 +35498,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109545</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -35556,34 +35556,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.447489225915474</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.32386649840136</v>
       </c>
       <c r="I13" t="n">
-        <v>6.915358626782576</v>
+        <v>5.386467322500491</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90865657015883</v>
+        <v>57.90865657015898</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.118284013878</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541743</v>
+        <v>152.9313987541745</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6281067837864</v>
+        <v>161.6281067837866</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6696652528189</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884738</v>
+        <v>101.3666451884739</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4210720067668</v>
+        <v>171.421072006767</v>
       </c>
       <c r="L14" t="n">
-        <v>188.4979333192471</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641133</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O14" t="n">
-        <v>34.5662976693613</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P14" t="n">
-        <v>4.319712972029389</v>
+        <v>145.6248761086903</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564586</v>
+        <v>88.43652711564596</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35735,13 +35735,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,46 +35778,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5313434880997647</v>
+        <v>0.53134348809985</v>
       </c>
       <c r="C16" t="n">
-        <v>11.69108318109551</v>
+        <v>11.69108318109559</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235715</v>
+        <v>32.96561390235723</v>
       </c>
       <c r="E16" t="n">
-        <v>36.47212294084287</v>
+        <v>36.47212294084295</v>
       </c>
       <c r="F16" t="n">
-        <v>39.22138193462121</v>
+        <v>39.22138193462129</v>
       </c>
       <c r="G16" t="n">
-        <v>9.447489225915389</v>
+        <v>9.447489225915474</v>
       </c>
       <c r="H16" t="n">
-        <v>12.32386649840127</v>
+        <v>12.32386649840136</v>
       </c>
       <c r="I16" t="n">
-        <v>13.29529608510281</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90865657015889</v>
+        <v>57.90865657015898</v>
       </c>
       <c r="K16" t="n">
-        <v>3.28663643275584</v>
+        <v>23.51688336714247</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>145.9964479048891</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541744</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.669380155291</v>
+        <v>140.6693801552912</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150847</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>188.4979333192471</v>
+        <v>23.57546622567633</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258593</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641133</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O17" t="n">
-        <v>34.5662976693613</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5661255446177</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
-        <v>37.06824088270363</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716528</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433478</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -35972,13 +35972,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>23.57546622567579</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>93.50614259421259</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258593</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641133</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O20" t="n">
-        <v>34.5662976693613</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5661255446177</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853634</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716528</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433478</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543465</v>
+        <v>38.34679395543484</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
@@ -36209,13 +36209,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4979333192471</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150847</v>
+        <v>56.43790171150837</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258593</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641133</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O23" t="n">
-        <v>34.5662976693613</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>155.635497833414</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446177</v>
+        <v>73.41535206957465</v>
       </c>
       <c r="S23" t="n">
-        <v>69.93067636853634</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716528</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433478</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543431</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
@@ -36446,13 +36446,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.703131559407</v>
+        <v>136.7031315594069</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583776996</v>
+        <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
         <v>260.677520706587</v>
@@ -36607,7 +36607,7 @@
         <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933624</v>
+        <v>248.0510481933623</v>
       </c>
       <c r="P26" t="n">
         <v>198.3927781729122</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163418</v>
+        <v>18.60320514163413</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36686,10 +36686,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O27" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,28 +36726,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.93755083370808</v>
+        <v>35.8678298590329</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47.02756955202864</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.30965303309005</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.808609311776</v>
       </c>
       <c r="F28" t="n">
-        <v>74.55786830555439</v>
+        <v>74.55786830555434</v>
       </c>
       <c r="G28" t="n">
-        <v>44.78397559684858</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.66035286933446</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.631782456036</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>295.1634364704123</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5735314691447</v>
+        <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
         <v>248.0510481933623</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163413</v>
+        <v>18.60320514163411</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36923,10 +36923,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O30" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36981,10 +36981,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.8788066133273</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.63178245603591</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>67.51058906936294</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>155.0061516237521</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.05478936836686</v>
+        <v>10.05478936836684</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262711</v>
+        <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
         <v>207.5852682445642</v>
@@ -37075,22 +37075,22 @@
         <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>275.8740215871622</v>
+        <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
         <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602265</v>
+        <v>228.7616333101123</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397764</v>
+        <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
         <v>124.6007233534432</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849837</v>
+        <v>19.43091500849838</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L33" t="n">
         <v>118.5181001296708</v>
@@ -37160,10 +37160,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37206,28 +37206,28 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>69.12981014015452</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>75.38557817241858</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.61168546371276</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>48.48806273619864</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>49.45949232290018</v>
       </c>
       <c r="J34" t="n">
-        <v>94.07285280795625</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>63.457257004148</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>7.71510125702861</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079272</v>
+        <v>31.04939904079267</v>
       </c>
       <c r="J35" t="n">
         <v>195.2775492916747</v>
       </c>
       <c r="K35" t="n">
-        <v>189.8969439280512</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258593</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641133</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O35" t="n">
-        <v>34.5662976693613</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3474312188468</v>
+        <v>111.7835657768697</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390192</v>
+        <v>77.17762287390187</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782059</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59328685644952</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90862676361903</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L36" t="n">
         <v>118.5181001296708</v>
@@ -37397,10 +37397,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>35.55650193384692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079266</v>
+        <v>31.04939904079267</v>
       </c>
       <c r="J38" t="n">
         <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
-        <v>33.02344726805351</v>
+        <v>189.8969439280516</v>
       </c>
       <c r="L38" t="n">
-        <v>47.19277018258593</v>
+        <v>47.19277018258596</v>
       </c>
       <c r="M38" t="n">
-        <v>260.4608093700286</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O38" t="n">
-        <v>34.5662976693613</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37567,13 +37567,13 @@
         <v>77.17762287390187</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54217369782053</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T38" t="n">
         <v>49.59328685644947</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L39" t="n">
         <v>118.5181001296708</v>
@@ -37634,10 +37634,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37683,10 +37683,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="F40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>164.228150250882</v>
       </c>
       <c r="K41" t="n">
-        <v>234.282577069175</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>288.202539398062</v>
+        <v>101.8890626626517</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6884551618874</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514374</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O41" t="n">
-        <v>34.5662976693613</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
-        <v>39.60432012897694</v>
+        <v>225.9177968643873</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.298032178054</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310918</v>
+        <v>46.1282238331092</v>
       </c>
       <c r="S41" t="n">
         <v>13.49277465702786</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L42" t="n">
         <v>118.5181001296708</v>
@@ -37871,10 +37871,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>103.0986344208986</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
-        <v>234.282577069175</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>86.79709031156301</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618874</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N44" t="n">
         <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
-        <v>34.5662976693613</v>
+        <v>34.56629766936135</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39.60432012897694</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.298032178054</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310918</v>
+        <v>46.1282238331092</v>
       </c>
       <c r="S44" t="n">
         <v>13.49277465702786</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543469</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L45" t="n">
         <v>118.5181001296708</v>
@@ -38108,10 +38108,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404388</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181807</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38166,10 +38166,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>75.18537156080946</v>
       </c>
       <c r="I46" t="n">
-        <v>46.42851255382318</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38196,10 +38196,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.57980805984192</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295478</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.09031380723351</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>22.34153801079367</v>
       </c>
     </row>
   </sheetData>
